--- a/frontend/outputs/LP5042248_invoice.xlsx
+++ b/frontend/outputs/LP5042248_invoice.xlsx
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="27" t="n">
-        <v>85.06089505747921</v>
+        <v>85.02530537658835</v>
       </c>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>

--- a/frontend/outputs/LP5042248_invoice.xlsx
+++ b/frontend/outputs/LP5042248_invoice.xlsx
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="27" t="n">
-        <v>85.02530537658835</v>
+        <v>85.05937321038269</v>
       </c>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>

--- a/frontend/outputs/LP5042248_invoice.xlsx
+++ b/frontend/outputs/LP5042248_invoice.xlsx
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="27" t="n">
-        <v>85.05937321038269</v>
+        <v>84.99338589368625</v>
       </c>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
